--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,14 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkc/Desktop/Matrix Overhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2101A196-A925-5546-A538-71DBE23A38D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDB7DF-5566-B84A-8C4D-61F71BCBFC9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16040" xr2:uid="{6F0DAD89-AB77-3E43-9F73-89B1E739CB39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{6F0DAD89-AB77-3E43-9F73-89B1E739CB39}"/>
   </bookViews>
   <sheets>
     <sheet name="loop测试" sheetId="1" r:id="rId1"/>
-    <sheet name="decoding测试" sheetId="2" r:id="rId2"/>
+    <sheet name="loop测试修改" sheetId="6" r:id="rId2"/>
+    <sheet name="decoding测试" sheetId="2" r:id="rId3"/>
+    <sheet name="decoding测试 -存档" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">loop测试修改!$B$1:$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">loop测试修改!$B$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">loop测试修改!$B$1:$I$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">loop测试修改!$B$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">loop测试修改!$B$1:$I$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">loop测试修改!$B$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">loop测试修改!$B$1:$I$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">loop测试修改!$B$4:$I$4</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>loop次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +102,10 @@
     <t>有无CSR比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -135,11 +154,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,6 +875,1298 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>loop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>循环展开</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>次数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>时间图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>loop测试修改!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unrolling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>loop测试修改!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loop测试修改!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>587.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1848.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7315.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C273-6848-A320-8575CE5EF7B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>loop测试修改!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rolling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>loop测试修改!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loop测试修改!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1036.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4062.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C273-6848-A320-8575CE5EF7B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1367456272"/>
+        <c:axId val="1426762416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1367456272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>循环次数</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1426762416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1426762416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>运行时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>/ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1367456272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82881253701226076"/>
+          <c:y val="5.2829228656000309E-2"/>
+          <c:w val="0.16786864211611432"/>
+          <c:h val="5.0364874538102886E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>loop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>循环展开次数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>加速比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>loop测试修改!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>loop测试修改!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0344827586206897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1867816091954022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6438746438746439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9731285988483684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1406619385342789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.82773631840796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7839220227755259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8008222145635371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F65E-6745-B200-CB9C3895EAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1431480384"/>
+        <c:axId val="1371394832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1431480384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  <a:t>循环次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371394832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1371394832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  <a:t>时间比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431480384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
               <a:t>矩阵大小与</a:t>
             </a:r>
@@ -1789,7 +3100,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1891,7 +3202,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>decoding测试!$C$10</c:f>
+              <c:f>decoding测试!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1971,7 +3282,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>decoding测试!$A$11:$A$14</c:f>
+              <c:f>decoding测试!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1992,7 +3303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>decoding测试!$C$11:$C$14</c:f>
+              <c:f>decoding测试!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2022,7 +3333,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>decoding测试!$D$10</c:f>
+              <c:f>decoding测试!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2102,7 +3413,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>decoding测试!$A$11:$A$14</c:f>
+              <c:f>decoding测试!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2123,7 +3434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>decoding测试!$D$11:$D$14</c:f>
+              <c:f>decoding测试!$D$13:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2153,7 +3464,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>decoding测试!$E$10</c:f>
+              <c:f>decoding测试!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2233,7 +3544,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>decoding测试!$A$11:$A$14</c:f>
+              <c:f>decoding测试!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2254,7 +3565,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>decoding测试!$E$11:$E$14</c:f>
+              <c:f>decoding测试!$E$13:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2284,7 +3595,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>decoding测试!$F$10</c:f>
+              <c:f>decoding测试!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2363,7 +3674,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>decoding测试!$A$11:$A$14</c:f>
+              <c:f>decoding测试!$A$13:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2384,7 +3695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>decoding测试!$F$11:$F$14</c:f>
+              <c:f>decoding测试!$F$13:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2406,6 +3717,1905 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BADC-854E-AFF0-5E9DC510410E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1428864608"/>
+        <c:axId val="1374262912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428864608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                  <a:t>矩阵稠密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374262912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1374262912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                  <a:t>运行时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>/ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428864608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+              <a:t>矩阵大小与</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>CSR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+              <a:t>O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>verhead</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+              <a:t>关系</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>(S=1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>645.73900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54C5-2D46-8A32-06A671D7C416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU（CSR）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27.974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.69099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1457.097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54C5-2D46-8A32-06A671D7C416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(Cublas)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54C5-2D46-8A32-06A671D7C416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSR-decoding-time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54C5-2D46-8A32-06A671D7C416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1369754288"/>
+        <c:axId val="1332402448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1369754288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                  <a:t>矩阵大小</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49030206750471983"/>
+              <c:y val="0.84148233764357439"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332402448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1332402448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                  <a:t>运行时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>/ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369754288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+              <a:t>矩阵稀疏度和</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>CSR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>Overhead</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+              <a:t>关系</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>(N=512)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>170.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.55699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.53899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8917-584C-82CB-E87393BEE482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU（CSR）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$D$13:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>301.69099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266.298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.52199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.855000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8917-584C-82CB-E87393BEE482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(Cublas)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4849999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8917-584C-82CB-E87393BEE482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'decoding测试 -存档'!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSR-decoding-time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'decoding测试 -存档'!$F$13:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8917-584C-82CB-E87393BEE482}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2841,6 +6051,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3848,6 +7218,2031 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4395,6 +9790,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFD50A3-4B6D-364F-9084-1E85FBF80D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25400FFB-1F2F-C747-8C16-E0A5EBDA81F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4403,7 +9875,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4433,13 +9905,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4466,6 +9938,145 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F21D4A-12C3-8B49-B129-BBC9FD91D912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E1D3F7-CF88-1F4C-9769-BC620F0E8C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CNN_gpu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="B2">
+            <v>4820170</v>
+          </cell>
+          <cell r="C2">
+            <v>15.388319755114365</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="B3">
+            <v>6609.2049999999999</v>
+          </cell>
+          <cell r="C3">
+            <v>8.7962186532977622</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>shared memory</v>
+          </cell>
+          <cell r="B4">
+            <v>6249.1760000000004</v>
+          </cell>
+          <cell r="C4">
+            <v>8.74020489403879</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>texture memory</v>
+          </cell>
+          <cell r="B5">
+            <v>5800.3639972377159</v>
+          </cell>
+          <cell r="C5">
+            <v>8.6656759527097353</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4767,8 +10378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6FFF1B-D3D3-2945-91E8-E76535209E3C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4853,11 +10464,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9C306-79D2-EE4B-8614-28EF169A830E}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <v>32</v>
+      </c>
+      <c r="D1">
+        <v>64</v>
+      </c>
+      <c r="E1">
+        <v>128</v>
+      </c>
+      <c r="F1">
+        <v>256</v>
+      </c>
+      <c r="G1">
+        <v>512</v>
+      </c>
+      <c r="H1">
+        <v>1024</v>
+      </c>
+      <c r="I1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>41.3</v>
+      </c>
+      <c r="D2">
+        <v>57.7</v>
+      </c>
+      <c r="E2">
+        <v>102.8</v>
+      </c>
+      <c r="F2">
+        <v>181.1</v>
+      </c>
+      <c r="G2">
+        <v>587.79999999999995</v>
+      </c>
+      <c r="H2">
+        <v>1848.5</v>
+      </c>
+      <c r="I2">
+        <v>7315.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D3">
+        <v>35.1</v>
+      </c>
+      <c r="E3">
+        <v>52.1</v>
+      </c>
+      <c r="F3">
+        <v>84.6</v>
+      </c>
+      <c r="G3">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="H3">
+        <v>1036.2</v>
+      </c>
+      <c r="I3">
+        <v>4062.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:E4" si="0">B2/B3</f>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.1867816091954022</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.6438746438746439</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.9731285988483684</v>
+      </c>
+      <c r="F4">
+        <f>F2/F3</f>
+        <v>2.1406619385342789</v>
+      </c>
+      <c r="G4">
+        <f>G2/G3</f>
+        <v>1.82773631840796</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:I4" si="1">H2/H3</f>
+        <v>1.7839220227755259</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.8008222145635371</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB48687-8036-304B-9C3D-A617666F2A69}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4869,10 +10621,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>9</v>
       </c>
@@ -4944,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G14" si="0">D4/C4</f>
+        <f t="shared" ref="G4:G16" si="0">D4/C4</f>
         <v>1.3545400512070227</v>
       </c>
     </row>
@@ -5020,128 +10772,152 @@
         <v>2.2564797851763636</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2048</v>
+      </c>
+      <c r="B8">
+        <v>60290</v>
+      </c>
+      <c r="C8">
+        <v>1397.1679999999999</v>
+      </c>
+      <c r="D8">
+        <v>1785.2819999999999</v>
+      </c>
+      <c r="E8">
+        <v>79.191000000000003</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.2777862075283717</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>3660</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>170.59</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>301.69099999999997</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>2.4470000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>110</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>1.7685151532915175</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>0.75</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>3710</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>170.7</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>266.298</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>2.4950000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>140</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>1.5600351493848859</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>0.5</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>3650</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>170.55699999999999</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>151.52199999999999</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>2.2839999999999998</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>200</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>0.88839508199604822</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>0.25</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>3760</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>170.53899999999999</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>70.855000000000004</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>2.4849999999999999</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>90</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>0.41547681175566886</v>
       </c>
@@ -5149,8 +10925,338 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0E809-2A64-104D-92B9-BEC661C82F5E}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>25.228999999999999</v>
+      </c>
+      <c r="D3">
+        <v>27.974</v>
+      </c>
+      <c r="E3">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>D3/C3</f>
+        <v>1.1088033612113044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>230</v>
+      </c>
+      <c r="C4">
+        <v>43.744</v>
+      </c>
+      <c r="D4">
+        <v>59.253</v>
+      </c>
+      <c r="E4">
+        <v>2.214</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G16" si="0">D4/C4</f>
+        <v>1.3545400512070227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>920</v>
+      </c>
+      <c r="C5">
+        <v>84.738</v>
+      </c>
+      <c r="D5">
+        <v>122.938</v>
+      </c>
+      <c r="E5">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.4508012933984753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>512</v>
+      </c>
+      <c r="B6">
+        <v>3660</v>
+      </c>
+      <c r="C6">
+        <v>170.59</v>
+      </c>
+      <c r="D6">
+        <v>301.69099999999997</v>
+      </c>
+      <c r="E6">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.7685151532915175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7">
+        <v>14950</v>
+      </c>
+      <c r="C7">
+        <v>645.73900000000003</v>
+      </c>
+      <c r="D7">
+        <v>1457.097</v>
+      </c>
+      <c r="E7">
+        <v>3.45</v>
+      </c>
+      <c r="F7">
+        <v>310</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.2564797851763636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2048</v>
+      </c>
+      <c r="B8">
+        <v>580</v>
+      </c>
+      <c r="C8">
+        <v>12.398</v>
+      </c>
+      <c r="D8">
+        <v>666.32399999999996</v>
+      </c>
+      <c r="E8">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F8">
+        <v>1520</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>53.744474915308921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3660</v>
+      </c>
+      <c r="C13">
+        <v>170.59</v>
+      </c>
+      <c r="D13">
+        <v>301.69099999999997</v>
+      </c>
+      <c r="E13">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.7685151532915175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B14">
+        <v>3710</v>
+      </c>
+      <c r="C14">
+        <v>170.7</v>
+      </c>
+      <c r="D14">
+        <v>266.298</v>
+      </c>
+      <c r="E14">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="F14">
+        <v>140</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.5600351493848859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B15">
+        <v>3650</v>
+      </c>
+      <c r="C15">
+        <v>170.55699999999999</v>
+      </c>
+      <c r="D15">
+        <v>151.52199999999999</v>
+      </c>
+      <c r="E15">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.88839508199604822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B16">
+        <v>3760</v>
+      </c>
+      <c r="C16">
+        <v>170.53899999999999</v>
+      </c>
+      <c r="D16">
+        <v>70.855000000000004</v>
+      </c>
+      <c r="E16">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.41547681175566886</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
